--- a/resources/pgc.xlsx
+++ b/resources/pgc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspace/perfil/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E1E155-B550-5849-8DF1-7CBDFD665E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376113AA-4FA2-9343-B0EE-C7E2A65BEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Nome</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>5201325035989406</t>
+  </si>
+  <si>
+    <t>TgSyWIYAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -984,7 +987,7 @@
   <dimension ref="A1:BA50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1638,9 @@
       <c r="B45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">

--- a/resources/pgc.xlsx
+++ b/resources/pgc.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspace/perfil/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376113AA-4FA2-9343-B0EE-C7E2A65BEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0B9F6-89CE-5B45-AC2D-6576D64E3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Nome</t>
   </si>
@@ -620,13 +633,31 @@
   </si>
   <si>
     <t>TgSyWIYAAAAJ</t>
+  </si>
+  <si>
+    <t>João Felipe Nicolaci Pimentel</t>
+  </si>
+  <si>
+    <t>Pedro Cortez Fetter Lopes</t>
+  </si>
+  <si>
+    <t>4603791761884563</t>
+  </si>
+  <si>
+    <t>1rMhTTcAAAAJ</t>
+  </si>
+  <si>
+    <t>7336253957211512</t>
+  </si>
+  <si>
+    <t>qDSsZdgAAAAJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +670,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -676,12 +714,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA50"/>
+  <dimension ref="A1:BA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1400,300 +1439,322 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>121</v>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
+        <v>194</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>189</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>190</v>
       </c>
     </row>

--- a/resources/pgc.xlsx
+++ b/resources/pgc.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspace/perfil/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0B9F6-89CE-5B45-AC2D-6576D64E3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D62D05-281E-F149-A738-7D03B486AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Nome</t>
   </si>
@@ -44,156 +31,6 @@
     <t>ID Scholar</t>
   </si>
   <si>
-    <t>Ano do Doutorado</t>
-  </si>
-  <si>
-    <t>Idade Acadêmica</t>
-  </si>
-  <si>
-    <t>Participações em Projetos (total)</t>
-  </si>
-  <si>
-    <t>Projetos Coordenados (total)</t>
-  </si>
-  <si>
-    <t>Projetos (total)</t>
-  </si>
-  <si>
-    <t>Orientações de Mestrado (total)</t>
-  </si>
-  <si>
-    <t>Orientações de Doutorado (total)</t>
-  </si>
-  <si>
-    <t>Orientações (total)</t>
-  </si>
-  <si>
-    <t>Bancas de Mestrado (total)</t>
-  </si>
-  <si>
-    <t>Bancas de Doutorado (total)</t>
-  </si>
-  <si>
-    <t>Bancas (total)</t>
-  </si>
-  <si>
-    <t>Publicações em Congressos (total)</t>
-  </si>
-  <si>
-    <t>Publicações em Periódicos (total)</t>
-  </si>
-  <si>
-    <t>Publicações (total)</t>
-  </si>
-  <si>
-    <t>Publicações JCR (total)</t>
-  </si>
-  <si>
-    <t>Publicações JCR &gt; 1,5 (total)</t>
-  </si>
-  <si>
-    <t>Participações em Projetos</t>
-  </si>
-  <si>
-    <t>Projetos Coordenados</t>
-  </si>
-  <si>
-    <t>Projetos</t>
-  </si>
-  <si>
-    <t>Orientações de Mestrado</t>
-  </si>
-  <si>
-    <t>Orientações de Doutorado</t>
-  </si>
-  <si>
-    <t>Orientações</t>
-  </si>
-  <si>
-    <t>Bancas de Mestrado</t>
-  </si>
-  <si>
-    <t>Bancas de Doutorado</t>
-  </si>
-  <si>
-    <t>Bancas</t>
-  </si>
-  <si>
-    <t>Publicações em Congressos</t>
-  </si>
-  <si>
-    <t>Publicações em Periódicos</t>
-  </si>
-  <si>
-    <t>Publicações</t>
-  </si>
-  <si>
-    <t>Publicações JCR</t>
-  </si>
-  <si>
-    <t>Publicações JCR &gt; 1,5</t>
-  </si>
-  <si>
-    <t>Aceitações JCR &gt; 1,5</t>
-  </si>
-  <si>
-    <t>Artigos JCR &gt; 1,5</t>
-  </si>
-  <si>
-    <t>Citações (total)</t>
-  </si>
-  <si>
-    <t>H-Index (total)</t>
-  </si>
-  <si>
-    <t>Citações</t>
-  </si>
-  <si>
-    <t>Participações em Projetos (anual)</t>
-  </si>
-  <si>
-    <t>Projetos Coordenados (anual)</t>
-  </si>
-  <si>
-    <t>Projetos (anual)</t>
-  </si>
-  <si>
-    <t>Orientações de Mestrado (anual)</t>
-  </si>
-  <si>
-    <t>Orientações de Doutorado (anual)</t>
-  </si>
-  <si>
-    <t>Orientações (anual)</t>
-  </si>
-  <si>
-    <t>Bancas de Mestrado (anual)</t>
-  </si>
-  <si>
-    <t>Bancas de Doutorado (anual)</t>
-  </si>
-  <si>
-    <t>Bancas (anual)</t>
-  </si>
-  <si>
-    <t>Publicações em Congressos (anual)</t>
-  </si>
-  <si>
-    <t>Publicações em Periódicos (anual)</t>
-  </si>
-  <si>
-    <t>Publicações JCR (anual)</t>
-  </si>
-  <si>
-    <t>Publicações (anual)</t>
-  </si>
-  <si>
-    <t>Citações (anual)</t>
-  </si>
-  <si>
-    <t>H-Index (anual)</t>
-  </si>
-  <si>
     <t>Alexandre Plastino de Carvalho</t>
   </si>
   <si>
@@ -362,9 +199,6 @@
     <t>4319951805195534</t>
   </si>
   <si>
-    <t>Z5TH9UsAAAAJ</t>
-  </si>
-  <si>
     <t>Igor Machado Coelho</t>
   </si>
   <si>
@@ -392,6 +226,15 @@
     <t>PEyGjwsAAAAJ</t>
   </si>
   <si>
+    <t>João Felipe Nicolaci Pimentel</t>
+  </si>
+  <si>
+    <t>4603791761884563</t>
+  </si>
+  <si>
+    <t>1rMhTTcAAAAJ</t>
+  </si>
+  <si>
     <t>José Viterbo Filho</t>
   </si>
   <si>
@@ -500,6 +343,15 @@
     <t>Wsn7Eh0AAAAJ</t>
   </si>
   <si>
+    <t>Marcos Vinicius Naves Bedo</t>
+  </si>
+  <si>
+    <t>8199158119583569</t>
+  </si>
+  <si>
+    <t>VQcYOOwAAAAJ</t>
+  </si>
+  <si>
     <t>Maria Cristina Silva Boeres</t>
   </si>
   <si>
@@ -518,6 +370,15 @@
     <t>O3lJvk4AAAAJ</t>
   </si>
   <si>
+    <t>Mariza Ferro</t>
+  </si>
+  <si>
+    <t>5895202268828302</t>
+  </si>
+  <si>
+    <t>KONpKVoAAAAJ</t>
+  </si>
+  <si>
     <t>Milton Brown Do Coutto Filho</t>
   </si>
   <si>
@@ -536,6 +397,15 @@
     <t>73VM_B8AAAAJ</t>
   </si>
   <si>
+    <t>Pedro Cortez Fetter Lopes</t>
+  </si>
+  <si>
+    <t>7336253957211512</t>
+  </si>
+  <si>
+    <t>qDSsZdgAAAAJ</t>
+  </si>
+  <si>
     <t>Raphael Carlos Santos Machado</t>
   </si>
   <si>
@@ -563,6 +433,15 @@
     <t>oEIT_KQAAAAJ</t>
   </si>
   <si>
+    <t>Taiane Coelho Ramos</t>
+  </si>
+  <si>
+    <t>5201325035989406</t>
+  </si>
+  <si>
+    <t>TgSyWIYAAAAJ</t>
+  </si>
+  <si>
     <t>Troy Costa Kohwalter</t>
   </si>
   <si>
@@ -608,56 +487,14 @@
     <t>fTsmjYkAAAAJ</t>
   </si>
   <si>
-    <t>Marcos Vinícius Naves Bêdo</t>
-  </si>
-  <si>
-    <t>VQcYOOwAAAAJ</t>
-  </si>
-  <si>
-    <t>8199158119583569</t>
-  </si>
-  <si>
-    <t>Mariza Ferro</t>
-  </si>
-  <si>
-    <t>5895202268828302</t>
-  </si>
-  <si>
-    <t>KONpKVoAAAAJ</t>
-  </si>
-  <si>
-    <t>Taiane Coelho Ramos</t>
-  </si>
-  <si>
-    <t>5201325035989406</t>
-  </si>
-  <si>
-    <t>TgSyWIYAAAAJ</t>
-  </si>
-  <si>
-    <t>João Felipe Nicolaci Pimentel</t>
-  </si>
-  <si>
-    <t>Pedro Cortez Fetter Lopes</t>
-  </si>
-  <si>
-    <t>4603791761884563</t>
-  </si>
-  <si>
-    <t>1rMhTTcAAAAJ</t>
-  </si>
-  <si>
-    <t>7336253957211512</t>
-  </si>
-  <si>
-    <t>qDSsZdgAAAAJ</t>
+    <t>0wCico0AAAAJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,14 +506,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -714,13 +543,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,20 +850,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,719 +868,570 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>192</v>
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>196</v>
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>205</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>199</v>
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>